--- a/CoffeeStore/ExcelBill/BL00008.xlsx
+++ b/CoffeeStore/ExcelBill/BL00008.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t/>
   </si>
@@ -35,7 +35,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>02/05/2022</t>
+    <t>05/05/2022</t>
   </si>
   <si>
     <t>Staff:</t>
@@ -71,16 +71,31 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Matcha Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Size: S - Status: HOT </t>
+    <t>Carrot Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Size: S - Status: COLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Golden Pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Konjac Caramel Jelly</t>
   </si>
   <si>
     <t xml:space="preserve"> - Pudding</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Condensed Milk</t>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Lemon Yogurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diamond Jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Fruit Diamond Jelly</t>
   </si>
   <si>
     <t>Total:</t>
@@ -627,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -740,7 +755,7 @@
         <v>1.0</v>
       </c>
       <c r="G13" t="n" s="7">
-        <v>31000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -773,72 +788,172 @@
         <v>1.0</v>
       </c>
       <c r="G16" t="n" s="8">
-        <v>6000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" s="13"/>
+      <c r="B17" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="F17" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="n" s="8">
+        <v>6000.0</v>
+      </c>
       <c r="I17" s="10"/>
     </row>
     <row r="18">
-      <c r="A18" s="13"/>
-      <c r="F18" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="H18" t="n" s="9">
-        <v>31000.0</v>
+      <c r="A18" t="s" s="17">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="F18" t="n" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G18" t="n" s="7">
+        <v>47000.0</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="13"/>
-      <c r="F19" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="H19" t="n" s="9">
-        <v>0.0</v>
+      <c r="B19" t="s">
+        <v>20</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="13"/>
-      <c r="F20" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="H20" t="n" s="9">
-        <v>0.0</v>
+      <c r="B20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="F20" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G20" t="n" s="8">
+        <v>6000.0</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="13"/>
+      <c r="B21" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="F21" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G21" t="n" s="8">
+        <v>8000.0</v>
+      </c>
       <c r="I21" s="10"/>
     </row>
     <row r="22">
       <c r="A22" s="13"/>
-      <c r="C22" t="s" s="6">
+      <c r="B22" t="s" s="8">
         <v>26</v>
+      </c>
+      <c r="F22" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G22" t="n" s="8">
+        <v>6000.0</v>
       </c>
       <c r="I22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="13"/>
-      <c r="C23" t="s" s="6">
+      <c r="B23" t="s" s="8">
         <v>27</v>
       </c>
+      <c r="F23" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G23" t="n" s="8">
+        <v>6000.0</v>
+      </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
+      <c r="A24" s="13"/>
+      <c r="B24" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="F24" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G24" t="n" s="8">
+        <v>6000.0</v>
+      </c>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="13"/>
+      <c r="F26" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="H26" t="n" s="9">
+        <v>82000.0</v>
+      </c>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="13"/>
+      <c r="F27" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="H27" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="13"/>
+      <c r="F28" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="H28" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13"/>
+      <c r="C30" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="13"/>
+      <c r="C31" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -861,17 +976,32 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A32:I32"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
